--- a/Data/072018/chamcong.xlsx
+++ b/Data/072018/chamcong.xlsx
@@ -1,41 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DucTn\Desktop\luong\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A3426D32-6228-4A40-B1D7-DF1435311731}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C38DF9D-5464-4F3D-9FC9-83B3BB3603DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Hai</t>
-  </si>
-  <si>
-    <t>Tien</t>
   </si>
   <si>
     <t>Minh</t>
   </si>
   <si>
     <t>Cuong</t>
-  </si>
-  <si>
-    <t>Duc</t>
   </si>
   <si>
     <t>Chi Thuy</t>
@@ -60,7 +53,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -74,12 +67,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -104,7 +91,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -113,7 +100,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,1080 +413,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:X34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:J32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" customWidth="1"/>
-    <col min="10" max="10" width="8" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-    </row>
-    <row r="2" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>43252</v>
-      </c>
-      <c r="B2" s="5">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5">
-        <v>1</v>
-      </c>
-      <c r="F2" s="5">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5">
-        <v>1</v>
-      </c>
-      <c r="H2" s="5">
-        <v>1</v>
-      </c>
-      <c r="I2" s="5">
-        <v>0</v>
-      </c>
-      <c r="J2" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>43253</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5">
-        <v>1</v>
-      </c>
-      <c r="H3" s="5">
-        <v>1</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>43254</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5">
-        <v>1</v>
-      </c>
-      <c r="G4" s="5">
-        <v>1</v>
-      </c>
-      <c r="H4" s="5">
-        <v>1</v>
-      </c>
-      <c r="I4" s="5">
-        <v>1</v>
-      </c>
-      <c r="J4" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>43255</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5">
-        <v>1</v>
-      </c>
-      <c r="I5" s="5">
-        <v>1</v>
-      </c>
-      <c r="J5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>43256</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5">
-        <v>1</v>
-      </c>
-      <c r="G6" s="5">
-        <v>1</v>
-      </c>
-      <c r="H6" s="5">
-        <v>1</v>
-      </c>
-      <c r="I6" s="5">
-        <v>1</v>
-      </c>
-      <c r="J6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>43257</v>
-      </c>
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5">
-        <v>1</v>
-      </c>
-      <c r="F7" s="5">
-        <v>1</v>
-      </c>
-      <c r="G7" s="5">
-        <v>1</v>
-      </c>
-      <c r="H7" s="5">
-        <v>1</v>
-      </c>
-      <c r="I7" s="5">
-        <v>1</v>
-      </c>
-      <c r="J7" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>43258</v>
-      </c>
-      <c r="B8" s="5">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1</v>
-      </c>
-      <c r="F8" s="5">
-        <v>1</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="H8" s="5">
-        <v>1</v>
-      </c>
-      <c r="I8" s="5">
-        <v>1</v>
-      </c>
-      <c r="J8" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>43259</v>
-      </c>
-      <c r="B9" s="5">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
-        <v>1</v>
-      </c>
-      <c r="G9" s="5">
-        <v>1</v>
-      </c>
-      <c r="H9" s="5">
-        <v>1</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0</v>
-      </c>
-      <c r="J9" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>43260</v>
-      </c>
-      <c r="B10" s="5">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5">
-        <v>1</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="I10" s="5">
-        <v>1</v>
-      </c>
-      <c r="J10" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>43261</v>
-      </c>
-      <c r="B11" s="5">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5">
-        <v>1</v>
-      </c>
-      <c r="H11" s="5">
-        <v>1</v>
-      </c>
-      <c r="I11" s="5">
-        <v>1</v>
-      </c>
-      <c r="J11" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>43262</v>
-      </c>
-      <c r="B12" s="5">
-        <v>1</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0</v>
-      </c>
-      <c r="D12" s="5">
-        <v>1</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1</v>
-      </c>
-      <c r="F12" s="5">
-        <v>1</v>
-      </c>
-      <c r="G12" s="5">
-        <v>1</v>
-      </c>
-      <c r="H12" s="5">
-        <v>1</v>
-      </c>
-      <c r="I12" s="5">
-        <v>1</v>
-      </c>
-      <c r="J12" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>43263</v>
-      </c>
-      <c r="B13" s="5">
-        <v>0</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5">
-        <v>0</v>
-      </c>
-      <c r="H13" s="5">
-        <v>0</v>
-      </c>
-      <c r="I13" s="5">
-        <v>0</v>
-      </c>
-      <c r="J13" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>43264</v>
-      </c>
-      <c r="B14" s="5">
-        <v>1</v>
-      </c>
-      <c r="C14" s="5">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1</v>
-      </c>
-      <c r="F14" s="5">
-        <v>1</v>
-      </c>
-      <c r="G14" s="5">
-        <v>1</v>
-      </c>
-      <c r="H14" s="5">
-        <v>1</v>
-      </c>
-      <c r="I14" s="5">
-        <v>0</v>
-      </c>
-      <c r="J14" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>43265</v>
-      </c>
-      <c r="B15" s="5">
-        <v>1</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1</v>
-      </c>
-      <c r="D15" s="6">
-        <v>1</v>
-      </c>
-      <c r="E15" s="6">
-        <v>1</v>
-      </c>
-      <c r="F15" s="5">
-        <v>2</v>
-      </c>
-      <c r="G15" s="5">
-        <v>1</v>
-      </c>
-      <c r="H15" s="5">
-        <v>1</v>
-      </c>
-      <c r="I15" s="5">
-        <v>1</v>
-      </c>
-      <c r="J15" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <v>43266</v>
-      </c>
-      <c r="B16" s="5">
-        <v>1</v>
-      </c>
-      <c r="C16" s="5">
-        <v>1</v>
-      </c>
-      <c r="D16" s="6">
-        <v>1</v>
-      </c>
-      <c r="E16" s="6">
-        <v>1</v>
-      </c>
-      <c r="F16" s="5">
-        <v>0</v>
-      </c>
-      <c r="G16" s="5">
-        <v>1</v>
-      </c>
-      <c r="H16" s="5">
-        <v>1</v>
-      </c>
-      <c r="I16" s="5">
-        <v>1</v>
-      </c>
-      <c r="J16" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
-        <v>43267</v>
-      </c>
-      <c r="B17" s="5">
-        <v>1</v>
-      </c>
-      <c r="C17" s="5">
-        <v>1</v>
-      </c>
-      <c r="D17" s="6">
-        <v>1</v>
-      </c>
-      <c r="E17" s="6">
-        <v>0</v>
-      </c>
-      <c r="F17" s="5">
-        <v>1</v>
-      </c>
-      <c r="G17" s="5">
-        <v>1</v>
-      </c>
-      <c r="H17" s="5">
-        <v>1</v>
-      </c>
-      <c r="I17" s="5">
-        <v>1</v>
-      </c>
-      <c r="J17" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
-        <v>43268</v>
-      </c>
-      <c r="B18" s="5">
-        <v>1</v>
-      </c>
-      <c r="C18" s="5">
-        <v>1</v>
-      </c>
-      <c r="D18" s="6">
-        <v>1</v>
-      </c>
-      <c r="E18" s="6">
-        <v>1</v>
-      </c>
-      <c r="F18" s="5">
-        <v>1</v>
-      </c>
-      <c r="G18" s="5">
-        <v>1</v>
-      </c>
-      <c r="H18" s="5">
-        <v>1</v>
-      </c>
-      <c r="I18" s="5">
-        <v>1</v>
-      </c>
-      <c r="J18" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
-        <v>43269</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
-        <v>43270</v>
-      </c>
-      <c r="B20" s="5">
-        <v>1</v>
-      </c>
-      <c r="C20" s="5">
-        <v>1</v>
-      </c>
-      <c r="D20" s="6">
-        <v>1</v>
-      </c>
-      <c r="E20" s="6">
-        <v>1</v>
-      </c>
-      <c r="F20" s="5">
-        <v>1</v>
-      </c>
-      <c r="G20" s="5">
-        <v>1</v>
-      </c>
-      <c r="H20" s="5">
-        <v>1</v>
-      </c>
-      <c r="I20" s="5">
-        <v>1</v>
-      </c>
-      <c r="J20" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
-        <v>43271</v>
-      </c>
-      <c r="B21" s="5">
-        <v>1</v>
-      </c>
-      <c r="C21" s="5">
-        <v>1</v>
-      </c>
-      <c r="D21" s="6">
-        <v>1</v>
-      </c>
-      <c r="E21" s="6">
-        <v>1</v>
-      </c>
-      <c r="F21" s="5">
-        <v>1</v>
-      </c>
-      <c r="G21" s="5">
-        <v>1</v>
-      </c>
-      <c r="H21" s="5">
-        <v>1</v>
-      </c>
-      <c r="I21" s="5">
-        <v>0</v>
-      </c>
-      <c r="J21" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
-        <v>43272</v>
-      </c>
-      <c r="B22" s="5">
-        <v>1</v>
-      </c>
-      <c r="C22" s="5">
-        <v>1</v>
-      </c>
-      <c r="D22" s="6">
-        <v>1</v>
-      </c>
-      <c r="E22" s="6">
-        <v>1</v>
-      </c>
-      <c r="F22" s="5">
-        <v>0</v>
-      </c>
-      <c r="G22" s="5">
-        <v>1</v>
-      </c>
-      <c r="H22" s="5">
-        <v>1</v>
-      </c>
-      <c r="I22" s="5">
-        <v>1</v>
-      </c>
-      <c r="J22" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
-        <v>43273</v>
-      </c>
-      <c r="B23" s="5">
-        <v>1</v>
-      </c>
-      <c r="C23" s="5">
-        <v>1</v>
-      </c>
-      <c r="D23" s="6">
-        <v>1</v>
-      </c>
-      <c r="E23" s="6">
-        <v>0</v>
-      </c>
-      <c r="F23" s="5">
-        <v>0</v>
-      </c>
-      <c r="G23" s="5">
-        <v>1</v>
-      </c>
-      <c r="H23" s="5">
-        <v>1</v>
-      </c>
-      <c r="I23" s="5">
-        <v>1</v>
-      </c>
-      <c r="J23" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
-        <v>43274</v>
-      </c>
-      <c r="B24" s="5">
-        <v>0</v>
-      </c>
-      <c r="C24" s="5">
-        <v>0</v>
-      </c>
-      <c r="D24" s="6">
-        <v>1</v>
-      </c>
-      <c r="E24" s="6">
-        <v>0</v>
-      </c>
-      <c r="F24" s="5">
-        <v>0</v>
-      </c>
-      <c r="G24" s="5">
-        <v>1</v>
-      </c>
-      <c r="H24" s="5">
-        <v>1</v>
-      </c>
-      <c r="I24" s="5">
-        <v>1</v>
-      </c>
-      <c r="J24" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
-        <v>43275</v>
-      </c>
-      <c r="B25" s="5">
-        <v>0</v>
-      </c>
-      <c r="C25" s="5">
-        <v>0</v>
-      </c>
-      <c r="D25" s="6">
-        <v>1</v>
-      </c>
-      <c r="E25" s="6">
-        <v>1</v>
-      </c>
-      <c r="F25" s="5">
-        <v>0</v>
-      </c>
-      <c r="G25" s="5">
-        <v>1</v>
-      </c>
-      <c r="H25" s="5">
-        <v>1</v>
-      </c>
-      <c r="I25" s="5">
-        <v>1</v>
-      </c>
-      <c r="J25" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
-        <v>43276</v>
-      </c>
-      <c r="B26" s="5">
-        <v>1</v>
-      </c>
-      <c r="C26" s="5">
-        <v>1</v>
-      </c>
-      <c r="D26" s="6">
-        <v>1</v>
-      </c>
-      <c r="E26" s="6">
-        <v>1</v>
-      </c>
-      <c r="F26" s="5">
-        <v>0</v>
-      </c>
-      <c r="G26" s="5">
-        <v>0</v>
-      </c>
-      <c r="H26" s="5">
-        <v>1</v>
-      </c>
-      <c r="I26" s="5">
-        <v>1</v>
-      </c>
-      <c r="J26" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
-        <v>43277</v>
-      </c>
-      <c r="B27" s="5">
-        <v>1</v>
-      </c>
-      <c r="C27" s="5">
-        <v>1</v>
-      </c>
-      <c r="D27" s="6">
-        <v>1</v>
-      </c>
-      <c r="E27" s="6">
-        <v>1</v>
-      </c>
-      <c r="F27" s="5">
-        <v>0</v>
-      </c>
-      <c r="G27" s="5">
-        <v>0</v>
-      </c>
-      <c r="H27" s="5">
-        <v>1</v>
-      </c>
-      <c r="I27" s="5">
-        <v>0</v>
-      </c>
-      <c r="J27" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
-        <v>43278</v>
-      </c>
-      <c r="B28" s="5">
-        <v>1</v>
-      </c>
-      <c r="C28" s="5">
-        <v>1</v>
-      </c>
-      <c r="D28" s="6">
-        <v>1</v>
-      </c>
-      <c r="E28" s="6">
-        <v>1</v>
-      </c>
-      <c r="F28" s="5">
-        <v>0</v>
-      </c>
-      <c r="G28" s="5">
-        <v>0</v>
-      </c>
-      <c r="H28" s="5">
-        <v>1</v>
-      </c>
-      <c r="I28" s="5">
-        <v>1</v>
-      </c>
-      <c r="J28" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
-        <v>43279</v>
-      </c>
-      <c r="B29" s="5">
-        <v>1</v>
-      </c>
-      <c r="C29" s="5">
-        <v>1</v>
-      </c>
-      <c r="D29" s="6">
-        <v>1</v>
-      </c>
-      <c r="E29" s="6">
-        <v>1</v>
-      </c>
-      <c r="F29" s="5">
-        <v>0</v>
-      </c>
-      <c r="G29" s="5">
-        <v>0</v>
-      </c>
-      <c r="H29" s="5">
-        <v>1</v>
-      </c>
-      <c r="I29" s="5">
-        <v>1</v>
-      </c>
-      <c r="J29" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
-        <v>43280</v>
-      </c>
-      <c r="B30" s="5">
-        <v>1</v>
-      </c>
-      <c r="C30" s="5">
-        <v>0</v>
-      </c>
-      <c r="D30" s="6">
-        <v>1</v>
-      </c>
-      <c r="E30" s="6">
-        <v>0</v>
-      </c>
-      <c r="F30" s="5">
-        <v>0</v>
-      </c>
-      <c r="G30" s="5">
-        <v>0</v>
-      </c>
-      <c r="H30" s="5">
-        <v>1</v>
-      </c>
-      <c r="I30" s="5">
-        <v>1</v>
-      </c>
-      <c r="J30" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
-        <v>43281</v>
-      </c>
-      <c r="B31" s="5">
-        <v>1</v>
-      </c>
-      <c r="C31" s="5">
-        <v>0</v>
-      </c>
-      <c r="D31" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E31" s="6">
-        <v>1</v>
-      </c>
-      <c r="F31" s="5">
-        <v>0</v>
-      </c>
-      <c r="G31" s="5">
-        <v>0</v>
-      </c>
-      <c r="H31" s="5">
-        <v>1</v>
-      </c>
-      <c r="I31" s="5">
-        <v>1</v>
-      </c>
-      <c r="J31" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="7"/>
-      <c r="T32" s="7"/>
-      <c r="U32" s="7"/>
-      <c r="V32" s="7"/>
-      <c r="W32" s="7"/>
-      <c r="X32" s="7"/>
-    </row>
-    <row r="33" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
-    </row>
-    <row r="34" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79279F38-6D7A-465F-84B4-F7867E9B70A9}">
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1514,25 +431,25 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -2267,39 +1184,69 @@
         <v>43310</v>
       </c>
       <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
+      <c r="C30" s="6">
+        <v>1</v>
+      </c>
+      <c r="D30" s="6">
+        <v>1</v>
+      </c>
       <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
+      <c r="F30" s="5">
+        <v>1</v>
+      </c>
+      <c r="G30" s="5">
+        <v>1</v>
+      </c>
       <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
+      <c r="I30" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>43311</v>
       </c>
       <c r="B31" s="5"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
+      <c r="C31" s="6">
+        <v>1</v>
+      </c>
+      <c r="D31" s="6">
+        <v>1</v>
+      </c>
       <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
+      <c r="F31" s="5">
+        <v>1</v>
+      </c>
+      <c r="G31" s="5">
+        <v>1</v>
+      </c>
       <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
+      <c r="I31" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>43312</v>
       </c>
       <c r="B32" s="5"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
+      <c r="C32" s="6">
+        <v>1</v>
+      </c>
+      <c r="D32" s="6">
+        <v>1</v>
+      </c>
       <c r="E32" s="5"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
+      <c r="F32" s="7">
+        <v>1</v>
+      </c>
+      <c r="G32" s="7">
+        <v>1</v>
+      </c>
       <c r="H32" s="5"/>
-      <c r="I32" s="7"/>
+      <c r="I32" s="7">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
